--- a/Disruptions_dataset.xlsx
+++ b/Disruptions_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idonoso/Dropbox/Anna -  Beca GOIB/000_CIENCIA/Frontiers - Review/MANUSCRIPT/1_REVIEW/FIGSHARE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idonoso/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8188A061-C21F-EB47-97EA-BF1E85EEB52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBFB66-87FE-7F4D-9E3F-7B687B7A9B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="3540" windowWidth="30320" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="3860" yWindow="3540" windowWidth="30320" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disruptions_dataset" sheetId="1" r:id="rId1"/>
@@ -2837,8 +2837,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2974,6 +2974,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3321,35 +3328,30 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -3705,10 +3707,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
@@ -11115,64 +11117,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="93.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="8" width="10.83203125" style="10"/>
-    <col min="9" max="9" width="17.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="8"/>
+    <col min="9" max="9" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
     <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -11204,7 +11207,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11236,7 +11239,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11256,7 +11259,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>290</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -11267,7 +11270,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11299,7 +11302,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11316,7 +11319,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>107384</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -11327,7 +11330,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11359,7 +11362,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -11391,7 +11394,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -11408,7 +11411,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>118970</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -11418,8 +11421,8 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11443,7 +11446,7 @@
       <c r="H10" s="1">
         <v>1397</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="1" t="s">
         <v>315</v>
       </c>
@@ -11452,7 +11455,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -11469,7 +11472,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>101173</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -11480,7 +11483,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -11511,8 +11514,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -11536,7 +11539,7 @@
       <c r="H13" s="1">
         <v>883</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="1" t="s">
         <v>327</v>
       </c>
@@ -11545,7 +11548,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -11565,7 +11568,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="8" t="s">
         <v>932</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -11576,7 +11579,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -11608,7 +11611,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -11639,8 +11642,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -11660,7 +11663,7 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="8" t="s">
         <v>343</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -11670,8 +11673,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -11695,7 +11698,7 @@
       <c r="H18" s="1">
         <v>223</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1" t="s">
         <v>347</v>
       </c>
@@ -11704,7 +11707,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -11721,7 +11724,7 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>108628</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -11732,7 +11735,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -11763,8 +11766,8 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -11786,7 +11789,7 @@
       <c r="H21" s="1">
         <v>632</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1" t="s">
         <v>357</v>
       </c>
@@ -11795,7 +11798,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -11827,7 +11830,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -11859,7 +11862,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -11879,7 +11882,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="8" t="s">
         <v>369</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -11890,7 +11893,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -11922,7 +11925,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -11939,7 +11942,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="10" t="s">
         <v>931</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -11950,7 +11953,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -11967,7 +11970,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>6741</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -11978,7 +11981,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -12009,8 +12012,8 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -12034,7 +12037,7 @@
       <c r="H29" s="1">
         <v>1909</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="1" t="s">
         <v>386</v>
       </c>
@@ -12043,7 +12046,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -12072,7 +12075,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -12104,7 +12107,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -12133,7 +12136,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -12151,10 +12154,10 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="8" t="s">
         <v>930</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -12165,7 +12168,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="7" t="s">
         <v>115</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -12185,7 +12188,7 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="8" t="s">
         <v>408</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -12196,7 +12199,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -12228,7 +12231,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="7" t="s">
         <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -12248,7 +12251,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="8" t="s">
         <v>415</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -12259,7 +12262,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -12287,8 +12290,8 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -12312,7 +12315,7 @@
       <c r="H38" s="1">
         <v>320</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="1" t="s">
         <v>422</v>
       </c>
@@ -12321,7 +12324,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="7" t="s">
         <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -12353,7 +12356,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="7" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -12385,7 +12388,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -12417,7 +12420,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -12437,7 +12440,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="8" t="s">
         <v>436</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -12448,7 +12451,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="7" t="s">
         <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -12468,7 +12471,7 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="10">
+      <c r="I43" s="8">
         <v>20162302</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -12479,7 +12482,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -12511,7 +12514,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -12542,8 +12545,8 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -12567,7 +12570,7 @@
       <c r="H46" s="1">
         <v>1109</v>
       </c>
-      <c r="I46" s="10"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="1" t="s">
         <v>452</v>
       </c>
@@ -12576,7 +12579,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -12607,8 +12610,8 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -12630,7 +12633,7 @@
       <c r="H48" s="1">
         <v>18</v>
       </c>
-      <c r="I48" s="10"/>
+      <c r="I48" s="8"/>
       <c r="J48" s="1" t="s">
         <v>459</v>
       </c>
@@ -12639,7 +12642,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -12671,7 +12674,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -12688,7 +12691,7 @@
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="10">
+      <c r="I50" s="8">
         <v>14557</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -12699,7 +12702,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -12728,7 +12731,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="7" t="s">
         <v>135</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -12760,7 +12763,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="7" t="s">
         <v>136</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -12792,7 +12795,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="7" t="s">
         <v>137</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -12824,7 +12827,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="7" t="s">
         <v>138</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -12853,7 +12856,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -12873,7 +12876,7 @@
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <v>20161289</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -12884,7 +12887,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="7" t="s">
         <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -12916,7 +12919,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -12945,7 +12948,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -12965,7 +12968,7 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="10" t="s">
+      <c r="I59" s="8" t="s">
         <v>497</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -12976,7 +12979,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -13008,7 +13011,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="7" t="s">
         <v>144</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -13028,7 +13031,7 @@
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="10" t="s">
+      <c r="I61" s="8" t="s">
         <v>505</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -13038,8 +13041,8 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
         <v>145</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -13061,7 +13064,7 @@
       <c r="H62" s="1">
         <v>15</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="I62" s="8"/>
       <c r="J62" s="1" t="s">
         <v>509</v>
       </c>
@@ -13070,7 +13073,7 @@
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -13102,7 +13105,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -13134,7 +13137,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -13162,8 +13165,8 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -13187,7 +13190,7 @@
       <c r="H66" s="1">
         <v>395</v>
       </c>
-      <c r="I66" s="10"/>
+      <c r="I66" s="8"/>
       <c r="J66" s="1" t="s">
         <v>523</v>
       </c>
@@ -13196,7 +13199,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -13228,7 +13231,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="7" t="s">
         <v>152</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -13257,7 +13260,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -13274,7 +13277,7 @@
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="10">
+      <c r="I69" s="8">
         <v>6836</v>
       </c>
       <c r="J69" s="1" t="s">
@@ -13285,7 +13288,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -13317,7 +13320,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -13337,7 +13340,7 @@
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="8" t="s">
         <v>539</v>
       </c>
       <c r="J71" s="1" t="s">
@@ -13348,7 +13351,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="7" t="s">
         <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -13380,7 +13383,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -13397,7 +13400,7 @@
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="8" t="s">
         <v>547</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -13408,7 +13411,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -13440,7 +13443,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -13460,7 +13463,7 @@
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="8" t="s">
         <v>554</v>
       </c>
       <c r="J75" s="1" t="s">
@@ -13471,7 +13474,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="7" t="s">
         <v>161</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -13499,8 +13502,8 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -13524,7 +13527,7 @@
       <c r="H77" s="1">
         <v>181</v>
       </c>
-      <c r="I77" s="10"/>
+      <c r="I77" s="8"/>
       <c r="J77" s="1" t="s">
         <v>561</v>
       </c>
@@ -13533,7 +13536,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -13565,7 +13568,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -13593,8 +13596,8 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -13618,7 +13621,7 @@
       <c r="H80" s="1">
         <v>31</v>
       </c>
-      <c r="I80" s="10"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="1" t="s">
         <v>571</v>
       </c>
@@ -13627,7 +13630,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -13659,7 +13662,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -13691,7 +13694,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -13719,8 +13722,8 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -13740,7 +13743,7 @@
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="10" t="s">
+      <c r="I84" s="8" t="s">
         <v>583</v>
       </c>
       <c r="J84" s="1" t="s">
@@ -13751,7 +13754,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -13771,7 +13774,7 @@
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="10" t="s">
+      <c r="I85" s="8" t="s">
         <v>587</v>
       </c>
       <c r="J85" s="1" t="s">
@@ -13782,13 +13785,13 @@
       </c>
     </row>
     <row r="86" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="11" t="s">
         <v>590</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -13800,10 +13803,10 @@
       <c r="F86" s="1">
         <v>4</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="8">
         <v>657</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="8">
         <v>667</v>
       </c>
       <c r="J86" s="1" t="s">
@@ -13814,7 +13817,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="7" t="s">
         <v>172</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -13832,10 +13835,10 @@
       <c r="F87" s="1">
         <v>2</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="8">
         <v>429</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="8">
         <v>443</v>
       </c>
       <c r="J87" s="1" t="s">
@@ -13846,13 +13849,13 @@
       </c>
     </row>
     <row r="88" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="11" t="s">
         <v>597</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -13864,10 +13867,10 @@
       <c r="F88" s="1">
         <v>5</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="8">
         <v>717</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="8">
         <v>724</v>
       </c>
       <c r="J88" s="1" t="s">
@@ -13878,7 +13881,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -13896,10 +13899,10 @@
       <c r="F89" s="1">
         <v>5</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="8">
         <v>674</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="8">
         <v>689</v>
       </c>
       <c r="J89" s="1" t="s">
@@ -13910,7 +13913,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -13928,10 +13931,10 @@
       <c r="F90" s="1">
         <v>2</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="8">
         <v>159</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="8">
         <v>162</v>
       </c>
       <c r="J90" s="1" t="s">
@@ -13942,13 +13945,13 @@
       </c>
     </row>
     <row r="91" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="7" t="s">
         <v>177</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="11" t="s">
         <v>607</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -13960,7 +13963,7 @@
       <c r="F91" s="1">
         <v>9</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="8" t="s">
         <v>608</v>
       </c>
       <c r="J91" s="1" t="s">
@@ -13971,13 +13974,13 @@
       </c>
     </row>
     <row r="92" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="7" t="s">
         <v>178</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="11" t="s">
         <v>611</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -13989,10 +13992,10 @@
       <c r="F92" s="1">
         <v>8</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="8">
         <v>931</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="8">
         <v>941</v>
       </c>
       <c r="J92" s="1" t="s">
@@ -14003,13 +14006,13 @@
       </c>
     </row>
     <row r="93" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="7" t="s">
         <v>180</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="11" t="s">
         <v>615</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -14018,10 +14021,10 @@
       <c r="E93" s="1">
         <v>305</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="8">
         <v>21</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="8">
         <v>28</v>
       </c>
       <c r="J93" s="1" t="s">
@@ -14032,7 +14035,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -14047,10 +14050,10 @@
       <c r="E94" s="1">
         <v>163</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="8">
         <v>99</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="8">
         <v>106</v>
       </c>
       <c r="J94" s="1" t="s">
@@ -14061,13 +14064,13 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="1" t="s">
         <v>933</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -14079,10 +14082,10 @@
       <c r="F95" s="1">
         <v>8</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="8">
         <v>1663</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="8">
         <v>1671</v>
       </c>
       <c r="J95" s="1" t="s">
@@ -14093,7 +14096,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -14111,10 +14114,10 @@
       <c r="F96" s="1">
         <v>41</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="8">
         <v>16503</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="8">
         <v>16507</v>
       </c>
       <c r="J96" s="1" t="s">
@@ -14125,7 +14128,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="7" t="s">
         <v>184</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -14143,10 +14146,10 @@
       <c r="F97" s="1">
         <v>8</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="8">
         <v>408</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="8">
         <v>413</v>
       </c>
       <c r="J97" s="1" t="s">
@@ -14157,7 +14160,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -14175,7 +14178,7 @@
       <c r="F98" s="1">
         <v>12</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="8" t="s">
         <v>633</v>
       </c>
       <c r="J98" s="1" t="s">
@@ -14185,8 +14188,8 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
         <v>186</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -14204,13 +14207,13 @@
       <c r="F99" s="1">
         <v>9</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="8">
         <v>2867</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="8">
         <v>2877</v>
       </c>
-      <c r="I99" s="10"/>
+      <c r="I99" s="8"/>
       <c r="J99" s="1" t="s">
         <v>637</v>
       </c>
@@ -14218,8 +14221,8 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>187</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -14237,13 +14240,13 @@
       <c r="F100" s="1">
         <v>11</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="8">
         <v>1996</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="8">
         <v>2006</v>
       </c>
-      <c r="I100" s="10"/>
+      <c r="I100" s="8"/>
       <c r="J100" s="1" t="s">
         <v>641</v>
       </c>
@@ -14252,7 +14255,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="7" t="s">
         <v>188</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -14270,10 +14273,10 @@
       <c r="F101" s="1">
         <v>7</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="8">
         <v>1571</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="8">
         <v>1580</v>
       </c>
       <c r="J101" s="1" t="s">
@@ -14283,8 +14286,8 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
         <v>189</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -14302,13 +14305,13 @@
       <c r="F102" s="1">
         <v>6</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="8">
         <v>1718</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="8">
         <v>1732</v>
       </c>
-      <c r="I102" s="10"/>
+      <c r="I102" s="8"/>
       <c r="J102" s="1" t="s">
         <v>647</v>
       </c>
@@ -14316,8 +14319,8 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
         <v>190</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -14335,13 +14338,13 @@
       <c r="F103" s="1">
         <v>2</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="8">
         <v>125</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="8">
         <v>131</v>
       </c>
-      <c r="I103" s="10"/>
+      <c r="I103" s="8"/>
       <c r="J103" s="1" t="s">
         <v>650</v>
       </c>
@@ -14350,7 +14353,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="7" t="s">
         <v>191</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -14368,10 +14371,10 @@
       <c r="F104" s="1">
         <v>1739</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="8">
         <v>2727</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="8">
         <v>2735</v>
       </c>
       <c r="J104" s="1" t="s">
@@ -14381,8 +14384,8 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
         <v>192</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -14400,13 +14403,13 @@
       <c r="F105" s="1">
         <v>2</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="8">
         <v>111</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="8">
         <v>122</v>
       </c>
-      <c r="I105" s="10"/>
+      <c r="I105" s="8"/>
       <c r="J105" s="1" t="s">
         <v>656</v>
       </c>
@@ -14415,7 +14418,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="7" t="s">
         <v>193</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -14433,10 +14436,10 @@
       <c r="F106" s="1">
         <v>3</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="8">
         <v>248</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="8">
         <v>259</v>
       </c>
       <c r="J106" s="1" t="s">
@@ -14446,8 +14449,8 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
         <v>194</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -14465,13 +14468,13 @@
       <c r="F107" s="1">
         <v>10</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="8">
         <v>1553</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="8">
         <v>1566</v>
       </c>
-      <c r="I107" s="10"/>
+      <c r="I107" s="8"/>
       <c r="J107" s="1" t="s">
         <v>664</v>
       </c>
@@ -14480,7 +14483,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="7" t="s">
         <v>195</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -14498,10 +14501,10 @@
       <c r="F108" s="1">
         <v>3</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="8">
         <v>563</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="8">
         <v>570</v>
       </c>
       <c r="J108" s="1" t="s">
@@ -14512,7 +14515,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="7" t="s">
         <v>196</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -14530,10 +14533,10 @@
       <c r="F109" s="1">
         <v>6</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="8">
         <v>835</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="8">
         <v>847</v>
       </c>
       <c r="J109" s="1" t="s">
@@ -14544,7 +14547,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="7" t="s">
         <v>197</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -14576,7 +14579,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -14608,7 +14611,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="7" t="s">
         <v>927</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -14640,7 +14643,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="7" t="s">
         <v>199</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -14658,10 +14661,10 @@
       <c r="F113" s="1">
         <v>1582</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="8">
         <v>3246</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="8">
         <v>3255</v>
       </c>
       <c r="J113" s="1" t="s">
@@ -14672,7 +14675,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="7" t="s">
         <v>200</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -14690,10 +14693,10 @@
       <c r="F114" s="1">
         <v>101</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="8">
         <v>24</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="8">
         <v>31</v>
       </c>
       <c r="J114" s="1" t="s">
@@ -14704,7 +14707,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="7" t="s">
         <v>202</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -14722,10 +14725,10 @@
       <c r="F115" s="1">
         <v>4</v>
       </c>
-      <c r="G115" s="10">
+      <c r="G115" s="8">
         <v>1029</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="8">
         <v>1042</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -14736,7 +14739,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -14754,10 +14757,10 @@
       <c r="F116" s="1">
         <v>18</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="8">
         <v>3773</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="8">
         <v>3784</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -14768,7 +14771,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="7" t="s">
         <v>204</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -14786,10 +14789,10 @@
       <c r="F117" s="1">
         <v>10</v>
       </c>
-      <c r="G117" s="10">
+      <c r="G117" s="8">
         <v>2361</v>
       </c>
-      <c r="H117" s="10">
+      <c r="H117" s="8">
         <v>2377</v>
       </c>
       <c r="J117" s="1" t="s">
@@ -14800,7 +14803,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="7" t="s">
         <v>205</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -14818,10 +14821,10 @@
       <c r="F118" s="1">
         <v>4</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="8">
         <v>961</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="8">
         <v>969</v>
       </c>
       <c r="J118" s="1" t="s">
@@ -14832,7 +14835,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="7" t="s">
         <v>206</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -14850,10 +14853,10 @@
       <c r="F119" s="1">
         <v>3</v>
       </c>
-      <c r="G119" s="10">
+      <c r="G119" s="8">
         <v>221</v>
       </c>
-      <c r="H119" s="10">
+      <c r="H119" s="8">
         <v>230</v>
       </c>
       <c r="J119" s="1" t="s">
@@ -14863,8 +14866,8 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="6" t="s">
+    <row r="120" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
         <v>207</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -14882,13 +14885,13 @@
       <c r="F120" s="1">
         <v>4</v>
       </c>
-      <c r="G120" s="10">
+      <c r="G120" s="8">
         <v>399</v>
       </c>
-      <c r="H120" s="10">
+      <c r="H120" s="8">
         <v>408</v>
       </c>
-      <c r="I120" s="10"/>
+      <c r="I120" s="8"/>
       <c r="J120" s="1" t="s">
         <v>707</v>
       </c>
@@ -14897,7 +14900,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="7" t="s">
         <v>208</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -14915,10 +14918,10 @@
       <c r="F121" s="1">
         <v>4</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="8">
         <v>405</v>
       </c>
-      <c r="H121" s="10">
+      <c r="H121" s="8">
         <v>419</v>
       </c>
       <c r="J121" s="1" t="s">
@@ -14929,7 +14932,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="7" t="s">
         <v>209</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -14947,10 +14950,10 @@
       <c r="F122" s="1">
         <v>1723</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="8">
         <v>3345</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="8">
         <v>3354</v>
       </c>
       <c r="J122" s="1" t="s">
@@ -14961,7 +14964,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="7" t="s">
         <v>210</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -14979,10 +14982,10 @@
       <c r="F123" s="1">
         <v>2</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="8">
         <v>75</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="8">
         <v>84</v>
       </c>
       <c r="J123" s="1" t="s">
@@ -14993,7 +14996,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="7" t="s">
         <v>211</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -15011,10 +15014,10 @@
       <c r="F124" s="1">
         <v>4</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="8">
         <v>935</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="8">
         <v>947</v>
       </c>
       <c r="J124" s="1" t="s">
@@ -15025,7 +15028,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="7" t="s">
         <v>212</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -15043,10 +15046,10 @@
       <c r="F125" s="1">
         <v>4</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="8">
         <v>493</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="8">
         <v>502</v>
       </c>
       <c r="J125" s="1" t="s">
@@ -15057,7 +15060,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="7" t="s">
         <v>213</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -15075,10 +15078,10 @@
       <c r="F126" s="1">
         <v>1</v>
       </c>
-      <c r="G126" s="10">
+      <c r="G126" s="8">
         <v>85</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="8">
         <v>88</v>
       </c>
       <c r="J126" s="1" t="s">
@@ -15088,8 +15091,8 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="127" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -15107,13 +15110,13 @@
       <c r="F127" s="1">
         <v>6</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="8">
         <v>1567</v>
       </c>
-      <c r="H127" s="10">
+      <c r="H127" s="8">
         <v>1584</v>
       </c>
-      <c r="I127" s="10"/>
+      <c r="I127" s="8"/>
       <c r="J127" s="1" t="s">
         <v>732</v>
       </c>
@@ -15121,8 +15124,8 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="128" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
+    <row r="128" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -15138,13 +15141,13 @@
         <v>26</v>
       </c>
       <c r="F128" s="1"/>
-      <c r="G128" s="10">
+      <c r="G128" s="8">
         <v>45</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="8">
         <v>52</v>
       </c>
-      <c r="I128" s="10"/>
+      <c r="I128" s="8"/>
       <c r="J128" s="1" t="s">
         <v>736</v>
       </c>
@@ -15153,7 +15156,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="7" t="s">
         <v>216</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -15171,10 +15174,10 @@
       <c r="F129" s="1">
         <v>5</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="8">
         <v>806</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="8">
         <v>813</v>
       </c>
       <c r="J129" s="1" t="s">
@@ -15185,7 +15188,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="7" t="s">
         <v>217</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -15203,10 +15206,10 @@
       <c r="F130" s="1">
         <v>3</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="8">
         <v>697</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="8">
         <v>707</v>
       </c>
       <c r="J130" s="1" t="s">
@@ -15216,41 +15219,40 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="9" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="E131" s="13">
+      <c r="E131" s="1">
         <v>10</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F131" s="1">
         <v>1</v>
       </c>
-      <c r="G131" s="14">
+      <c r="G131" s="8">
         <v>47</v>
       </c>
-      <c r="H131" s="14">
+      <c r="H131" s="8">
         <v>54</v>
       </c>
-      <c r="I131" s="14"/>
-      <c r="J131" s="13" t="s">
+      <c r="J131" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="K131" s="13">
+      <c r="K131" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -15268,13 +15270,13 @@
       <c r="F132" s="1">
         <v>2</v>
       </c>
-      <c r="G132" s="10">
+      <c r="G132" s="8">
         <v>269</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="8">
         <v>280</v>
       </c>
-      <c r="I132" s="10"/>
+      <c r="I132" s="8"/>
       <c r="J132" s="1" t="s">
         <v>747</v>
       </c>
@@ -15282,8 +15284,8 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -15307,7 +15309,7 @@
       <c r="H133" s="1">
         <v>921</v>
       </c>
-      <c r="I133" s="10"/>
+      <c r="I133" s="8"/>
       <c r="J133" s="1" t="s">
         <v>923</v>
       </c>
@@ -15315,8 +15317,8 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
         <v>221</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -15334,13 +15336,13 @@
       <c r="F134" s="1">
         <v>5</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="8">
         <v>1317</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="8">
         <v>1328</v>
       </c>
-      <c r="I134" s="10"/>
+      <c r="I134" s="8"/>
       <c r="J134" s="1" t="s">
         <v>750</v>
       </c>
@@ -15349,7 +15351,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="7" t="s">
         <v>222</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -15367,10 +15369,10 @@
       <c r="F135" s="1">
         <v>4</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="8">
         <v>423</v>
       </c>
-      <c r="H135" s="10">
+      <c r="H135" s="8">
         <v>434</v>
       </c>
       <c r="J135" s="1" t="s">
@@ -15381,7 +15383,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="7" t="s">
         <v>223</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -15399,10 +15401,10 @@
       <c r="F136" s="1">
         <v>20</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="8">
         <v>2482</v>
       </c>
-      <c r="H136" s="10">
+      <c r="H136" s="8">
         <v>2490</v>
       </c>
       <c r="J136" s="1" t="s">
@@ -15413,7 +15415,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -15431,10 +15433,10 @@
       <c r="F137" s="1">
         <v>2</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G137" s="8">
         <v>197</v>
       </c>
-      <c r="H137" s="10">
+      <c r="H137" s="8">
         <v>207</v>
       </c>
       <c r="J137" s="1" t="s">
@@ -15445,40 +15447,39 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="E138" s="13">
+      <c r="E138" s="1">
         <v>13</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="1">
         <v>4</v>
       </c>
-      <c r="G138" s="14">
+      <c r="G138" s="8">
         <v>554</v>
       </c>
-      <c r="H138" s="14">
+      <c r="H138" s="8">
         <v>574</v>
       </c>
-      <c r="I138" s="14"/>
-      <c r="J138" s="13" t="s">
+      <c r="J138" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="K138" s="13">
+      <c r="K138" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
         <v>226</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -15496,13 +15497,13 @@
       <c r="F139" s="1">
         <v>2</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="8">
         <v>202</v>
       </c>
-      <c r="H139" s="10">
+      <c r="H139" s="8">
         <v>208</v>
       </c>
-      <c r="I139" s="10"/>
+      <c r="I139" s="8"/>
       <c r="J139" s="1" t="s">
         <v>767</v>
       </c>
@@ -15511,7 +15512,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="A140" s="7" t="s">
         <v>227</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -15529,10 +15530,10 @@
       <c r="F140" s="1">
         <v>4</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="8">
         <v>709</v>
       </c>
-      <c r="H140" s="10">
+      <c r="H140" s="8">
         <v>718</v>
       </c>
       <c r="J140" s="1" t="s">
@@ -15542,8 +15543,8 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
         <v>228</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -15561,13 +15562,13 @@
       <c r="F141" s="1">
         <v>4</v>
       </c>
-      <c r="G141" s="10">
+      <c r="G141" s="8">
         <v>741</v>
       </c>
-      <c r="H141" s="10">
+      <c r="H141" s="8">
         <v>748</v>
       </c>
-      <c r="I141" s="10"/>
+      <c r="I141" s="8"/>
       <c r="J141" s="1" t="s">
         <v>774</v>
       </c>
@@ -15576,7 +15577,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="A142" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -15594,10 +15595,10 @@
       <c r="F142" s="1">
         <v>7</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="8">
         <v>1023</v>
       </c>
-      <c r="H142" s="10">
+      <c r="H142" s="8">
         <v>1034</v>
       </c>
       <c r="J142" s="1" t="s">
@@ -15608,7 +15609,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="A143" s="7" t="s">
         <v>230</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -15626,10 +15627,10 @@
       <c r="F143" s="1">
         <v>4</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="8">
         <v>404</v>
       </c>
-      <c r="H143" s="10">
+      <c r="H143" s="8">
         <v>424</v>
       </c>
       <c r="J143" s="1" t="s">
@@ -15640,7 +15641,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="A144" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -15658,10 +15659,10 @@
       <c r="F144" s="1">
         <v>3</v>
       </c>
-      <c r="G144" s="10">
+      <c r="G144" s="8">
         <v>597</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="8">
         <v>607</v>
       </c>
       <c r="J144" s="1" t="s">
@@ -15672,7 +15673,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="7" t="s">
         <v>232</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -15690,10 +15691,10 @@
       <c r="F145" s="1">
         <v>4</v>
       </c>
-      <c r="G145" s="10">
+      <c r="G145" s="8">
         <v>481</v>
       </c>
-      <c r="H145" s="10">
+      <c r="H145" s="8">
         <v>487</v>
       </c>
       <c r="J145" s="1" t="s">
@@ -15704,7 +15705,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -15722,10 +15723,10 @@
       <c r="F146" s="1">
         <v>1</v>
       </c>
-      <c r="G146" s="10">
+      <c r="G146" s="8">
         <v>66</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="8">
         <v>74</v>
       </c>
       <c r="J146" s="1" t="s">
@@ -15736,7 +15737,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="A147" s="7" t="s">
         <v>234</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -15754,10 +15755,10 @@
       <c r="F147" s="1">
         <v>4</v>
       </c>
-      <c r="G147" s="10">
+      <c r="G147" s="8">
         <v>499</v>
       </c>
-      <c r="H147" s="10">
+      <c r="H147" s="8">
         <v>502</v>
       </c>
       <c r="J147" s="1" t="s">
@@ -15767,8 +15768,8 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -15786,13 +15787,13 @@
       <c r="F148" s="1">
         <v>4</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G148" s="8">
         <v>709</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="8">
         <v>716</v>
       </c>
-      <c r="I148" s="10"/>
+      <c r="I148" s="8"/>
       <c r="J148" s="1" t="s">
         <v>796</v>
       </c>
@@ -15801,7 +15802,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="A149" s="7" t="s">
         <v>236</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -15819,10 +15820,10 @@
       <c r="F149" s="1">
         <v>3</v>
       </c>
-      <c r="G149" s="10">
+      <c r="G149" s="8">
         <v>710</v>
       </c>
-      <c r="H149" s="10">
+      <c r="H149" s="8">
         <v>718</v>
       </c>
       <c r="J149" s="1" t="s">
@@ -15833,7 +15834,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -15851,10 +15852,10 @@
       <c r="F150" s="1">
         <v>2</v>
       </c>
-      <c r="G150" s="10">
+      <c r="G150" s="8">
         <v>195</v>
       </c>
-      <c r="H150" s="10">
+      <c r="H150" s="8">
         <v>205</v>
       </c>
       <c r="J150" s="1" t="s">
@@ -15865,7 +15866,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="7" t="s">
         <v>238</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -15883,10 +15884,10 @@
       <c r="F151" s="1">
         <v>3</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="8">
         <v>202</v>
       </c>
-      <c r="H151" s="10">
+      <c r="H151" s="8">
         <v>214</v>
       </c>
       <c r="J151" s="1" t="s">
@@ -15897,38 +15898,36 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="E152" s="13">
+      <c r="E152" s="1">
         <v>18</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="1">
         <v>3</v>
       </c>
-      <c r="G152" s="14">
+      <c r="G152" s="8">
         <v>347</v>
       </c>
-      <c r="H152" s="14">
+      <c r="H152" s="8">
         <v>356</v>
       </c>
-      <c r="I152" s="14"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="13">
+      <c r="K152" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
         <v>240</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -15946,13 +15945,13 @@
       <c r="F153" s="1">
         <v>6</v>
       </c>
-      <c r="G153" s="10">
+      <c r="G153" s="8">
         <v>926</v>
       </c>
-      <c r="H153" s="10">
+      <c r="H153" s="8">
         <v>939</v>
       </c>
-      <c r="I153" s="10"/>
+      <c r="I153" s="8"/>
       <c r="J153" s="1" t="s">
         <v>813</v>
       </c>
@@ -15961,7 +15960,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="A154" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -15979,10 +15978,10 @@
       <c r="F154" s="1">
         <v>2</v>
       </c>
-      <c r="G154" s="10">
+      <c r="G154" s="8">
         <v>221</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="8">
         <v>232</v>
       </c>
       <c r="J154" s="1" t="s">
@@ -15992,8 +15991,8 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
         <v>242</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -16011,13 +16010,13 @@
       <c r="F155" s="1">
         <v>3</v>
       </c>
-      <c r="G155" s="10">
+      <c r="G155" s="8">
         <v>497</v>
       </c>
-      <c r="H155" s="10">
+      <c r="H155" s="8">
         <v>508</v>
       </c>
-      <c r="I155" s="10"/>
+      <c r="I155" s="8"/>
       <c r="J155" s="1" t="s">
         <v>820</v>
       </c>
@@ -16026,7 +16025,7 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="A156" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -16044,10 +16043,10 @@
       <c r="F156" s="1">
         <v>1</v>
       </c>
-      <c r="G156" s="10">
+      <c r="G156" s="8">
         <v>106</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="8">
         <v>113</v>
       </c>
       <c r="J156" s="1" t="s">
@@ -16058,7 +16057,7 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="A157" s="7" t="s">
         <v>244</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -16076,10 +16075,10 @@
       <c r="F157" s="1">
         <v>2</v>
       </c>
-      <c r="G157" s="10">
+      <c r="G157" s="8">
         <v>400</v>
       </c>
-      <c r="H157" s="10">
+      <c r="H157" s="8">
         <v>411</v>
       </c>
       <c r="J157" s="1" t="s">
@@ -16090,7 +16089,7 @@
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="A158" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -16108,10 +16107,10 @@
       <c r="F158" s="1">
         <v>4</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="8">
         <v>510</v>
       </c>
-      <c r="H158" s="10">
+      <c r="H158" s="8">
         <v>518</v>
       </c>
       <c r="J158" s="1" t="s">
@@ -16122,7 +16121,7 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="A159" s="7" t="s">
         <v>246</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -16140,10 +16139,10 @@
       <c r="F159" s="1">
         <v>4</v>
       </c>
-      <c r="G159" s="10">
+      <c r="G159" s="8">
         <v>663</v>
       </c>
-      <c r="H159" s="10">
+      <c r="H159" s="8">
         <v>674</v>
       </c>
       <c r="J159" s="1" t="s">
@@ -16154,7 +16153,7 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="A160" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -16172,10 +16171,10 @@
       <c r="F160" s="1">
         <v>3</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="8">
         <v>348</v>
       </c>
-      <c r="H160" s="10">
+      <c r="H160" s="8">
         <v>354</v>
       </c>
       <c r="J160" s="1" t="s">
@@ -16186,7 +16185,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="A161" s="7" t="s">
         <v>248</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -16201,13 +16200,13 @@
       <c r="E161" s="1">
         <v>139</v>
       </c>
-      <c r="F161" s="10" t="s">
+      <c r="F161" s="8" t="s">
         <v>916</v>
       </c>
-      <c r="G161" s="10">
+      <c r="G161" s="8">
         <v>195</v>
       </c>
-      <c r="H161" s="10">
+      <c r="H161" s="8">
         <v>202</v>
       </c>
       <c r="J161" s="1" t="s">
@@ -16218,7 +16217,7 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="A162" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -16236,10 +16235,10 @@
       <c r="F162" s="1">
         <v>2</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="8">
         <v>435</v>
       </c>
-      <c r="H162" s="10">
+      <c r="H162" s="8">
         <v>445</v>
       </c>
       <c r="J162" s="1" t="s">
@@ -16250,7 +16249,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="A163" s="7" t="s">
         <v>250</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -16268,10 +16267,10 @@
       <c r="F163" s="1">
         <v>3</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="8">
         <v>340</v>
       </c>
-      <c r="H163" s="10">
+      <c r="H163" s="8">
         <v>347</v>
       </c>
       <c r="J163" s="1" t="s">
@@ -16282,7 +16281,7 @@
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="A164" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -16300,10 +16299,10 @@
       <c r="F164" s="1">
         <v>21</v>
       </c>
-      <c r="G164" s="10">
+      <c r="G164" s="8">
         <v>8096</v>
       </c>
-      <c r="H164" s="10">
+      <c r="H164" s="8">
         <v>8100</v>
       </c>
       <c r="J164" s="1" t="s">
@@ -16314,7 +16313,7 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="A165" s="7" t="s">
         <v>252</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -16332,10 +16331,10 @@
       <c r="F165" s="1">
         <v>1</v>
       </c>
-      <c r="G165" s="10">
+      <c r="G165" s="8">
         <v>1</v>
       </c>
-      <c r="H165" s="10">
+      <c r="H165" s="8">
         <v>26</v>
       </c>
       <c r="J165" s="1" t="s">
@@ -16346,7 +16345,7 @@
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="A166" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -16364,10 +16363,10 @@
       <c r="F166" s="1">
         <v>5731</v>
       </c>
-      <c r="G166" s="10">
+      <c r="G166" s="8">
         <v>146</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="8">
         <v>148</v>
       </c>
       <c r="J166" s="1" t="s">
@@ -16378,7 +16377,7 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="A167" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -16396,10 +16395,10 @@
       <c r="F167" s="1">
         <v>5</v>
       </c>
-      <c r="G167" s="10">
+      <c r="G167" s="8">
         <v>501</v>
       </c>
-      <c r="H167" s="10">
+      <c r="H167" s="8">
         <v>508</v>
       </c>
       <c r="J167" s="1" t="s">
@@ -16410,7 +16409,7 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="A168" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -16428,10 +16427,10 @@
       <c r="F168" s="1">
         <v>2</v>
       </c>
-      <c r="G168" s="10">
+      <c r="G168" s="8">
         <v>421</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="8">
         <v>431</v>
       </c>
       <c r="J168" s="1" t="s">
@@ -16442,7 +16441,7 @@
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="A169" s="7" t="s">
         <v>256</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -16460,10 +16459,10 @@
       <c r="F169" s="1">
         <v>1</v>
       </c>
-      <c r="G169" s="10">
+      <c r="G169" s="8">
         <v>89</v>
       </c>
-      <c r="H169" s="10">
+      <c r="H169" s="8">
         <v>103</v>
       </c>
       <c r="J169" s="1" t="s">
@@ -16474,7 +16473,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="A170" s="7" t="s">
         <v>257</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -16492,10 +16491,10 @@
       <c r="F170" s="1">
         <v>4</v>
       </c>
-      <c r="G170" s="10">
+      <c r="G170" s="8">
         <v>584</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="8">
         <v>595</v>
       </c>
       <c r="J170" s="1" t="s">
@@ -16506,7 +16505,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="A171" s="7" t="s">
         <v>258</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -16538,7 +16537,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="A172" s="7" t="s">
         <v>259</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -16556,10 +16555,10 @@
       <c r="F172" s="1">
         <v>4</v>
       </c>
-      <c r="G172" s="10">
+      <c r="G172" s="8">
         <v>89</v>
       </c>
-      <c r="H172" s="10">
+      <c r="H172" s="8">
         <v>97</v>
       </c>
       <c r="K172" s="1">
@@ -16567,7 +16566,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="A173" s="7" t="s">
         <v>260</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -16585,10 +16584,10 @@
       <c r="F173" s="1">
         <v>1</v>
       </c>
-      <c r="G173" s="10">
+      <c r="G173" s="8">
         <v>65</v>
       </c>
-      <c r="H173" s="10">
+      <c r="H173" s="8">
         <v>86</v>
       </c>
       <c r="J173" s="1" t="s">
@@ -16599,7 +16598,7 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="A174" s="7" t="s">
         <v>261</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -16617,10 +16616,10 @@
       <c r="F174" s="1">
         <v>44352</v>
       </c>
-      <c r="G174" s="10">
+      <c r="G174" s="8">
         <v>695</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="8">
         <v>712</v>
       </c>
       <c r="J174" s="1" t="s">
@@ -16631,7 +16630,7 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="A175" s="7" t="s">
         <v>262</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -16649,10 +16648,10 @@
       <c r="F175" s="1">
         <v>1</v>
       </c>
-      <c r="G175" s="10">
+      <c r="G175" s="8">
         <v>117</v>
       </c>
-      <c r="H175" s="10">
+      <c r="H175" s="8">
         <v>126</v>
       </c>
       <c r="J175" s="1" t="s">
@@ -16663,7 +16662,7 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="A176" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -16681,10 +16680,10 @@
       <c r="F176" s="1">
         <v>6856</v>
       </c>
-      <c r="G176" s="10">
+      <c r="G176" s="8">
         <v>635</v>
       </c>
-      <c r="H176" s="10">
+      <c r="H176" s="8">
         <v>639</v>
       </c>
       <c r="J176" s="1" t="s">
@@ -16694,8 +16693,8 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="6" t="s">
+    <row r="177" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -16713,13 +16712,13 @@
       <c r="F177" s="1">
         <v>4</v>
       </c>
-      <c r="G177" s="10">
+      <c r="G177" s="8">
         <v>583</v>
       </c>
-      <c r="H177" s="10">
+      <c r="H177" s="8">
         <v>595</v>
       </c>
-      <c r="I177" s="10"/>
+      <c r="I177" s="8"/>
       <c r="J177" s="1" t="s">
         <v>887</v>
       </c>
@@ -16728,7 +16727,7 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="A178" s="7" t="s">
         <v>265</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -16746,10 +16745,10 @@
       <c r="F178" s="1">
         <v>4</v>
       </c>
-      <c r="G178" s="10">
+      <c r="G178" s="8">
         <v>899</v>
       </c>
-      <c r="H178" s="10">
+      <c r="H178" s="8">
         <v>903</v>
       </c>
       <c r="J178" s="1" t="s">
@@ -16760,7 +16759,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="A179" s="7" t="s">
         <v>266</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -16778,10 +16777,10 @@
       <c r="F179" s="1">
         <v>12</v>
       </c>
-      <c r="G179" s="10">
+      <c r="G179" s="8">
         <v>1707</v>
       </c>
-      <c r="H179" s="10">
+      <c r="H179" s="8">
         <v>1715</v>
       </c>
       <c r="J179" s="1" t="s">
@@ -16792,7 +16791,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="A180" s="7" t="s">
         <v>905</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -16810,10 +16809,10 @@
       <c r="F180" s="1">
         <v>5447</v>
       </c>
-      <c r="G180" s="10">
+      <c r="G180" s="8">
         <v>2184</v>
       </c>
-      <c r="H180" s="10">
+      <c r="H180" s="8">
         <v>2188</v>
       </c>
       <c r="J180" s="1" t="s">
@@ -16824,7 +16823,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="A181" s="7" t="s">
         <v>267</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -16842,10 +16841,10 @@
       <c r="F181" s="1">
         <v>1</v>
       </c>
-      <c r="G181" s="10">
+      <c r="G181" s="8">
         <v>127</v>
       </c>
-      <c r="H181" s="10">
+      <c r="H181" s="8">
         <v>141</v>
       </c>
       <c r="J181" s="1" t="s">
@@ -16856,7 +16855,7 @@
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="A182" s="7" t="s">
         <v>268</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -16874,10 +16873,10 @@
       <c r="F182" s="1">
         <v>4</v>
       </c>
-      <c r="G182" s="10">
+      <c r="G182" s="8">
         <v>674</v>
       </c>
-      <c r="H182" s="10">
+      <c r="H182" s="8">
         <v>689</v>
       </c>
       <c r="J182" s="1" t="s">
@@ -16888,7 +16887,7 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="A183" s="7" t="s">
         <v>906</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -16906,10 +16905,10 @@
       <c r="F183" s="1">
         <v>1</v>
       </c>
-      <c r="G183" s="10">
+      <c r="G183" s="8">
         <v>339</v>
       </c>
-      <c r="H183" s="10">
+      <c r="H183" s="8">
         <v>349</v>
       </c>
       <c r="J183" s="1" t="s">
@@ -16920,7 +16919,7 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="A184" s="7" t="s">
         <v>269</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -16938,10 +16937,10 @@
       <c r="F184" s="1">
         <v>4</v>
       </c>
-      <c r="G184" s="10">
+      <c r="G184" s="8">
         <v>1031</v>
       </c>
-      <c r="H184" s="10">
+      <c r="H184" s="8">
         <v>1037</v>
       </c>
       <c r="J184" s="1" t="s">
@@ -16952,7 +16951,7 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="A185" s="7" t="s">
         <v>270</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -16970,10 +16969,10 @@
       <c r="F185" s="1">
         <v>1</v>
       </c>
-      <c r="G185" s="10">
+      <c r="G185" s="8">
         <v>32</v>
       </c>
-      <c r="H185" s="10">
+      <c r="H185" s="8">
         <v>37</v>
       </c>
       <c r="J185" s="1" t="s">
@@ -16985,11 +16984,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1" display="https://doi.org/10.1007/s11252-020-00927-1"/>
-    <hyperlink ref="J183" r:id="rId2" display="https://doi.org/10.1007/BF00052233"/>
-    <hyperlink ref="J56" r:id="rId3" display="https://doi.org/10.1098/rspb.2016.1289"/>
+    <hyperlink ref="J20" r:id="rId1" display="https://doi.org/10.1007/s11252-020-00927-1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J183" r:id="rId2" display="https://doi.org/10.1007/BF00052233" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J56" r:id="rId3" display="https://doi.org/10.1098/rspb.2016.1289" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="I26" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Disruptions_dataset.xlsx
+++ b/Disruptions_dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idonoso/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idonoso/Documents/GitHub/Seed-dispersal-disruptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABBFB66-87FE-7F4D-9E3F-7B687B7A9B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13A0E9E-3AB1-6745-A041-9EB31CEAFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="3540" windowWidth="30320" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="3540" windowWidth="30320" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disruptions_dataset" sheetId="1" r:id="rId1"/>
@@ -3710,7 +3710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
@@ -11120,8 +11120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C198" sqref="C198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
